--- a/Common/分工记录.xlsx
+++ b/Common/分工记录.xlsx
@@ -40,7 +40,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相机控制</t>
+    <t xml:space="preserve">相机控制 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Common/分工记录.xlsx
+++ b/Common/分工记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>木木</t>
   </si>
@@ -43,12 +43,31 @@
     <t xml:space="preserve">相机控制 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>北京u3d入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rycccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AB打包工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有代码优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -181,7 +200,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,20 +409,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -416,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -427,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -438,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -447,6 +464,39 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -457,12 +507,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -471,12 +521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Common/分工记录.xlsx
+++ b/Common/分工记录.xlsx
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +81,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,11 +117,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,7 +432,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -488,21 +507,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="7" spans="1:3" s="2" customFormat="1">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
